--- a/Output/nic 4.xlsx
+++ b/Output/nic 4.xlsx
@@ -445,17 +445,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10:49:38</t>
+          <t>10:18:56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:49:44</t>
+          <t>10:19:02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
